--- a/プログラム作成履歴.xlsx
+++ b/プログラム作成履歴.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -36,9 +36,19 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>01HelloWorld.html</t>
+  </si>
+  <si>
     <t>概要</t>
     <rPh sb="0" eb="2">
       <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>console.logにHelloWorldを出力</t>
+    <rPh sb="23" eb="25">
+      <t>シュツリョク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -406,7 +416,7 @@
   <dimension ref="A1:D255"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -427,16 +437,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="B2" s="2">
+        <v>43435</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="1">

--- a/プログラム作成履歴.xlsx
+++ b/プログラム作成履歴.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -36,9 +36,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>01HelloWorld.html</t>
-  </si>
-  <si>
     <t>概要</t>
     <rPh sb="0" eb="2">
       <t>ガイヨウ</t>
@@ -49,6 +46,27 @@
     <t>console.logにHelloWorldを出力</t>
     <rPh sb="23" eb="25">
       <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01HelloWorld.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>02HelloWorld.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01のjavascript処理を外部ファイルに移動</t>
+    <rPh sb="13" eb="15">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>イドウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -416,7 +434,7 @@
   <dimension ref="A1:D255"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -437,7 +455,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -448,19 +466,25 @@
         <v>43435</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="B3" s="2">
+        <v>43435</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="1">

--- a/プログラム作成履歴.xlsx
+++ b/プログラム作成履歴.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -69,6 +69,18 @@
       <t>イドウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>引数に名前を取得し、別ファイルのスクリプトから、名前を画面出力するプログラム</t>
+  </si>
+  <si>
+    <t>03message.html</t>
+  </si>
+  <si>
+    <t>helloworld.js</t>
+  </si>
+  <si>
+    <t>greeting.js</t>
   </si>
 </sst>
 </file>
@@ -431,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D255"/>
+  <dimension ref="A1:D257"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -487,32 +499,38 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>43435</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -520,7 +538,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -528,7 +546,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -536,7 +554,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -544,7 +562,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -552,7 +570,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -560,7 +578,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -568,7 +586,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -576,7 +594,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -584,7 +602,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -592,7 +610,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -600,7 +618,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -608,7 +626,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -616,7 +634,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -624,7 +642,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -632,7 +650,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -640,7 +658,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -648,7 +666,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -656,7 +674,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -664,7 +682,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -672,7 +690,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -680,7 +698,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -688,7 +706,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -696,7 +714,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -704,7 +722,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -712,7 +730,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -720,7 +738,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -728,7 +746,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -736,7 +754,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -744,7 +762,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -752,7 +770,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -760,7 +778,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -768,7 +786,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -776,7 +794,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -784,7 +802,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -792,7 +810,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -800,7 +818,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -808,7 +826,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -816,7 +834,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -824,7 +842,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -832,7 +850,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -840,7 +858,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -848,7 +866,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -856,7 +874,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -864,7 +882,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -872,7 +890,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -880,7 +898,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -888,7 +906,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -896,7 +914,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -904,7 +922,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -912,7 +930,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -920,7 +938,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -928,7 +946,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" s="1">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -936,7 +954,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" s="1">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -944,7 +962,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61" s="1">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -952,7 +970,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62" s="1">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -960,7 +978,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" s="1">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -968,7 +986,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" s="1">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -976,7 +994,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" s="1">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -984,7 +1002,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" s="1">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -992,7 +1010,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" s="1">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -1000,7 +1018,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" s="1">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -1008,7 +1026,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69" s="1">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -1016,7 +1034,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70" s="1">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -1024,7 +1042,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71" s="1">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -1032,7 +1050,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72" s="1">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -1040,7 +1058,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -1048,7 +1066,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" s="1">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -1056,7 +1074,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75" s="1">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -1064,7 +1082,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76" s="1">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -1072,7 +1090,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77" s="1">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -1080,7 +1098,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78" s="1">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -1088,7 +1106,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79" s="1">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -1096,7 +1114,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80" s="1">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -1104,7 +1122,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81" s="1">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -1112,7 +1130,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A82" s="1">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -1120,7 +1138,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83" s="1">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -1128,7 +1146,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84" s="1">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -1136,7 +1154,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85" s="1">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -1144,7 +1162,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86" s="1">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -1152,7 +1170,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A87" s="1">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -1160,7 +1178,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A88" s="1">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -1168,7 +1186,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A89" s="1">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -1176,7 +1194,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A90" s="1">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -1184,7 +1202,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A91" s="1">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -1192,7 +1210,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A92" s="1">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -1200,7 +1218,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A93" s="1">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -1208,7 +1226,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A94" s="1">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -1216,7 +1234,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A95" s="1">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -1224,7 +1242,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A96" s="1">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -1232,7 +1250,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A97" s="1">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -1240,7 +1258,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A98" s="1">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -1248,7 +1266,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A99" s="1">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -1256,7 +1274,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100" s="1">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -1264,7 +1282,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101" s="1">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -1272,7 +1290,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A102" s="1">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -1280,7 +1298,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A103" s="1">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -1288,7 +1306,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A104" s="1">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -1296,7 +1314,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A105" s="1">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -1304,7 +1322,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A106" s="1">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -1312,7 +1330,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A107" s="1">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -1320,7 +1338,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A108" s="1">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -1328,7 +1346,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A109" s="1">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -1336,7 +1354,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A110" s="1">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -1344,7 +1362,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A111" s="1">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -1352,7 +1370,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A112" s="1">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -1360,7 +1378,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A113" s="1">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -1368,7 +1386,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A114" s="1">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -1376,7 +1394,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A115" s="1">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -1384,7 +1402,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A116" s="1">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -1392,7 +1410,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A117" s="1">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -1400,7 +1418,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A118" s="1">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -1408,7 +1426,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A119" s="1">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -1416,7 +1434,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A120" s="1">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -1424,7 +1442,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A121" s="1">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -1432,7 +1450,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A122" s="1">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -1440,7 +1458,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A123" s="1">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -1448,7 +1466,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A124" s="1">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -1456,7 +1474,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A125" s="1">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -1464,7 +1482,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A126" s="1">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -1472,7 +1490,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A127" s="1">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -1480,7 +1498,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A128" s="1">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -1488,7 +1506,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A129" s="1">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -1496,7 +1514,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A130" s="1">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -1504,7 +1522,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A131" s="1">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -1512,7 +1530,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A132" s="1">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -1520,7 +1538,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A133" s="1">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -1528,7 +1546,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A134" s="1">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -1536,7 +1554,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A135" s="1">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -1544,7 +1562,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A136" s="1">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -1552,7 +1570,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A137" s="1">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -1560,7 +1578,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A138" s="1">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -1568,7 +1586,7 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A139" s="1">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -1576,7 +1594,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A140" s="1">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -1584,7 +1602,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A141" s="1">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -1592,7 +1610,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A142" s="1">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -1600,7 +1618,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A143" s="1">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -1608,7 +1626,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A144" s="1">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -1616,7 +1634,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A145" s="1">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -1624,7 +1642,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A146" s="1">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -1632,7 +1650,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A147" s="1">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -1640,7 +1658,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A148" s="1">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -1648,7 +1666,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A149" s="1">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -1656,7 +1674,7 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A150" s="1">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -1664,7 +1682,7 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A151" s="1">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -1672,7 +1690,7 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A152" s="1">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -1680,7 +1698,7 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A153" s="1">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -1688,7 +1706,7 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A154" s="1">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -1696,7 +1714,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A155" s="1">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -1704,7 +1722,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A156" s="1">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -1712,7 +1730,7 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A157" s="1">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -1720,7 +1738,7 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A158" s="1">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -1728,7 +1746,7 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A159" s="1">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -1736,7 +1754,7 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A160" s="1">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -1744,7 +1762,7 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A161" s="1">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -1752,7 +1770,7 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A162" s="1">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -1760,7 +1778,7 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A163" s="1">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -1768,7 +1786,7 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A164" s="1">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -1776,7 +1794,7 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A165" s="1">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -1784,7 +1802,7 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A166" s="1">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -1792,7 +1810,7 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A167" s="1">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -1800,7 +1818,7 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A168" s="1">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -1808,7 +1826,7 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A169" s="1">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -1816,7 +1834,7 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A170" s="1">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -1824,7 +1842,7 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A171" s="1">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -1832,7 +1850,7 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A172" s="1">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -1840,7 +1858,7 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A173" s="1">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -1848,7 +1866,7 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A174" s="1">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -1856,7 +1874,7 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A175" s="1">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -1864,7 +1882,7 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A176" s="1">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -1872,7 +1890,7 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A177" s="1">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -1880,7 +1898,7 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A178" s="1">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -1888,7 +1906,7 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A179" s="1">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -1896,7 +1914,7 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A180" s="1">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -1904,7 +1922,7 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A181" s="1">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -1912,7 +1930,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A182" s="1">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -1920,7 +1938,7 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A183" s="1">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -1928,7 +1946,7 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A184" s="1">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -1936,7 +1954,7 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A185" s="1">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -1944,7 +1962,7 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A186" s="1">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -1952,7 +1970,7 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A187" s="1">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -1960,7 +1978,7 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A188" s="1">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -1968,7 +1986,7 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A189" s="1">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -1976,7 +1994,7 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A190" s="1">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -1984,7 +2002,7 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A191" s="1">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -1992,7 +2010,7 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A192" s="1">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -2000,7 +2018,7 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A193" s="1">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -2008,7 +2026,7 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A194" s="1">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -2016,7 +2034,7 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A195" s="1">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -2024,7 +2042,7 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A196" s="1">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -2032,7 +2050,7 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A197" s="1">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -2040,7 +2058,7 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A198" s="1">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -2048,7 +2066,7 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A199" s="1">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -2056,7 +2074,7 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A200" s="1">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -2064,7 +2082,7 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A201" s="1">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -2072,7 +2090,7 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A202" s="1">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -2080,7 +2098,7 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A203" s="1">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -2088,7 +2106,7 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A204" s="1">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -2096,7 +2114,7 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A205" s="1">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -2104,7 +2122,7 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A206" s="1">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -2112,7 +2130,7 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A207" s="1">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -2120,7 +2138,7 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A208" s="1">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -2128,7 +2146,7 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A209" s="1">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -2136,7 +2154,7 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A210" s="1">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -2144,7 +2162,7 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A211" s="1">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -2152,7 +2170,7 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A212" s="1">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -2160,7 +2178,7 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A213" s="1">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -2168,7 +2186,7 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A214" s="1">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -2176,7 +2194,7 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A215" s="1">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -2184,7 +2202,7 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A216" s="1">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -2192,7 +2210,7 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A217" s="1">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -2200,7 +2218,7 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A218" s="1">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -2208,7 +2226,7 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A219" s="1">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -2216,7 +2234,7 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A220" s="1">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -2224,7 +2242,7 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A221" s="1">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -2232,7 +2250,7 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A222" s="1">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -2240,7 +2258,7 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A223" s="1">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -2248,7 +2266,7 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A224" s="1">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -2256,7 +2274,7 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A225" s="1">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -2264,7 +2282,7 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A226" s="1">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -2272,7 +2290,7 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A227" s="1">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -2280,7 +2298,7 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A228" s="1">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -2288,7 +2306,7 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A229" s="1">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -2296,7 +2314,7 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A230" s="1">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -2304,7 +2322,7 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A231" s="1">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -2312,7 +2330,7 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A232" s="1">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -2320,7 +2338,7 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A233" s="1">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -2328,7 +2346,7 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A234" s="1">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -2336,7 +2354,7 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A235" s="1">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -2344,7 +2362,7 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A236" s="1">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -2352,7 +2370,7 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A237" s="1">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -2360,7 +2378,7 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A238" s="1">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -2368,7 +2386,7 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A239" s="1">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -2376,7 +2394,7 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A240" s="1">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -2384,7 +2402,7 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A241" s="1">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -2392,7 +2410,7 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A242" s="1">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -2400,7 +2418,7 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A243" s="1">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -2408,7 +2426,7 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A244" s="1">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -2416,7 +2434,7 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A245" s="1">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -2424,7 +2442,7 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A246" s="1">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -2432,7 +2450,7 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A247" s="1">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -2440,7 +2458,7 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A248" s="1">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -2448,7 +2466,7 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A249" s="1">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -2456,7 +2474,7 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A250" s="1">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -2464,7 +2482,7 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A251" s="1">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -2472,7 +2490,7 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A252" s="1">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -2480,7 +2498,7 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A253" s="1">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -2488,7 +2506,7 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A254" s="1">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -2496,11 +2514,27 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A255" s="1">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A256" s="1">
+        <v>253</v>
+      </c>
+      <c r="B256" s="1"/>
+      <c r="C256" s="1"/>
+      <c r="D256" s="1"/>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A257" s="1">
+        <v>254</v>
+      </c>
+      <c r="B257" s="1"/>
+      <c r="C257" s="1"/>
+      <c r="D257" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/プログラム作成履歴.xlsx
+++ b/プログラム作成履歴.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -71,9 +71,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>引数に名前を取得し、別ファイルのスクリプトから、名前を画面出力するプログラム</t>
-  </si>
-  <si>
     <t>03message.html</t>
   </si>
   <si>
@@ -81,6 +78,36 @@
   </si>
   <si>
     <t>greeting.js</t>
+  </si>
+  <si>
+    <t>エスケープ文字を反映</t>
+    <rPh sb="5" eb="7">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>05textbox.html</t>
+  </si>
+  <si>
+    <t>buttonclick.js</t>
+  </si>
+  <si>
+    <t>引数に名前を取得し、別ファイルのスクリプトから、名前を画面出力</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキストボックスの入力値をボタンクリックで、表示する</t>
+    <rPh sb="9" eb="12">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -443,17 +470,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D257"/>
+  <dimension ref="A1:D259"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.125" customWidth="1"/>
-    <col min="4" max="4" width="31.75" customWidth="1"/>
+    <col min="4" max="4" width="57.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
@@ -502,7 +529,7 @@
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1"/>
     </row>
@@ -514,17 +541,17 @@
         <v>43435</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" s="1"/>
     </row>
@@ -532,37 +559,49 @@
       <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="B7" s="2">
+        <v>43435</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="1">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="A8" s="1"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="B9" s="2">
+        <v>43435</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="1">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -570,7 +609,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -578,7 +617,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -586,7 +625,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -594,7 +633,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -602,7 +641,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -610,7 +649,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -618,7 +657,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -626,7 +665,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -634,7 +673,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -642,7 +681,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -650,7 +689,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -658,7 +697,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -666,7 +705,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -674,7 +713,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -682,7 +721,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -690,7 +729,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -698,7 +737,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -706,7 +745,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -714,7 +753,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -722,7 +761,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -730,7 +769,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -738,7 +777,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -746,7 +785,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -754,7 +793,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -762,7 +801,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -770,7 +809,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -778,7 +817,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -786,7 +825,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -794,7 +833,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -802,7 +841,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -810,7 +849,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -818,7 +857,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -826,7 +865,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -834,7 +873,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -842,7 +881,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -850,7 +889,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -858,7 +897,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -866,7 +905,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -874,7 +913,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -882,7 +921,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -890,7 +929,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -898,7 +937,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -906,7 +945,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -914,7 +953,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -922,7 +961,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -930,7 +969,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -938,7 +977,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -946,7 +985,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" s="1">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -954,7 +993,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" s="1">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -962,7 +1001,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61" s="1">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -970,7 +1009,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62" s="1">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -978,7 +1017,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" s="1">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -986,7 +1025,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" s="1">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -994,7 +1033,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" s="1">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -1002,7 +1041,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" s="1">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -1010,7 +1049,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" s="1">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -1018,7 +1057,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" s="1">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -1026,7 +1065,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69" s="1">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -1034,7 +1073,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70" s="1">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -1042,7 +1081,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71" s="1">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -1050,7 +1089,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72" s="1">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -1058,7 +1097,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -1066,7 +1105,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" s="1">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -1074,7 +1113,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75" s="1">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -1082,7 +1121,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76" s="1">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -1090,7 +1129,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77" s="1">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -1098,7 +1137,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78" s="1">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -1106,7 +1145,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79" s="1">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -1114,7 +1153,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80" s="1">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -1122,7 +1161,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81" s="1">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -1130,7 +1169,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A82" s="1">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -1138,7 +1177,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83" s="1">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -1146,7 +1185,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84" s="1">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -1154,7 +1193,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85" s="1">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -1162,7 +1201,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86" s="1">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -1170,7 +1209,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A87" s="1">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -1178,7 +1217,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A88" s="1">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -1186,7 +1225,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A89" s="1">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -1194,7 +1233,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A90" s="1">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -1202,7 +1241,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A91" s="1">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -1210,7 +1249,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A92" s="1">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -1218,7 +1257,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A93" s="1">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -1226,7 +1265,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A94" s="1">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -1234,7 +1273,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A95" s="1">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -1242,7 +1281,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A96" s="1">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -1250,7 +1289,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A97" s="1">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -1258,7 +1297,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A98" s="1">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -1266,7 +1305,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A99" s="1">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -1274,7 +1313,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100" s="1">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -1282,7 +1321,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101" s="1">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -1290,7 +1329,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A102" s="1">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -1298,7 +1337,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A103" s="1">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -1306,7 +1345,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A104" s="1">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -1314,7 +1353,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A105" s="1">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -1322,7 +1361,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A106" s="1">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -1330,7 +1369,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A107" s="1">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -1338,7 +1377,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A108" s="1">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -1346,7 +1385,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A109" s="1">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -1354,7 +1393,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A110" s="1">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -1362,7 +1401,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A111" s="1">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -1370,7 +1409,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A112" s="1">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -1378,7 +1417,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A113" s="1">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -1386,7 +1425,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A114" s="1">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -1394,7 +1433,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A115" s="1">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -1402,7 +1441,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A116" s="1">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -1410,7 +1449,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A117" s="1">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -1418,7 +1457,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A118" s="1">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -1426,7 +1465,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A119" s="1">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -1434,7 +1473,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A120" s="1">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -1442,7 +1481,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A121" s="1">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -1450,7 +1489,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A122" s="1">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -1458,7 +1497,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A123" s="1">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -1466,7 +1505,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A124" s="1">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -1474,7 +1513,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A125" s="1">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -1482,7 +1521,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A126" s="1">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -1490,7 +1529,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A127" s="1">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -1498,7 +1537,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A128" s="1">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -1506,7 +1545,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A129" s="1">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -1514,7 +1553,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A130" s="1">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -1522,7 +1561,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A131" s="1">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -1530,7 +1569,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A132" s="1">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -1538,7 +1577,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A133" s="1">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -1546,7 +1585,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A134" s="1">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -1554,7 +1593,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A135" s="1">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -1562,7 +1601,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A136" s="1">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -1570,7 +1609,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A137" s="1">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -1578,7 +1617,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A138" s="1">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -1586,7 +1625,7 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A139" s="1">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -1594,7 +1633,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A140" s="1">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -1602,7 +1641,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A141" s="1">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -1610,7 +1649,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A142" s="1">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -1618,7 +1657,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A143" s="1">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -1626,7 +1665,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A144" s="1">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -1634,7 +1673,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A145" s="1">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -1642,7 +1681,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A146" s="1">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -1650,7 +1689,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A147" s="1">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -1658,7 +1697,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A148" s="1">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -1666,7 +1705,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A149" s="1">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -1674,7 +1713,7 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A150" s="1">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -1682,7 +1721,7 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A151" s="1">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -1690,7 +1729,7 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A152" s="1">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -1698,7 +1737,7 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A153" s="1">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -1706,7 +1745,7 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A154" s="1">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -1714,7 +1753,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A155" s="1">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -1722,7 +1761,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A156" s="1">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -1730,7 +1769,7 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A157" s="1">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -1738,7 +1777,7 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A158" s="1">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -1746,7 +1785,7 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A159" s="1">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -1754,7 +1793,7 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A160" s="1">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -1762,7 +1801,7 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A161" s="1">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -1770,7 +1809,7 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A162" s="1">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -1778,7 +1817,7 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A163" s="1">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -1786,7 +1825,7 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A164" s="1">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -1794,7 +1833,7 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A165" s="1">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -1802,7 +1841,7 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A166" s="1">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -1810,7 +1849,7 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A167" s="1">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -1818,7 +1857,7 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A168" s="1">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -1826,7 +1865,7 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A169" s="1">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -1834,7 +1873,7 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A170" s="1">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -1842,7 +1881,7 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A171" s="1">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -1850,7 +1889,7 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A172" s="1">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -1858,7 +1897,7 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A173" s="1">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -1866,7 +1905,7 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A174" s="1">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -1874,7 +1913,7 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A175" s="1">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -1882,7 +1921,7 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A176" s="1">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -1890,7 +1929,7 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A177" s="1">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -1898,7 +1937,7 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A178" s="1">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -1906,7 +1945,7 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A179" s="1">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -1914,7 +1953,7 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A180" s="1">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -1922,7 +1961,7 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A181" s="1">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -1930,7 +1969,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A182" s="1">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -1938,7 +1977,7 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A183" s="1">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -1946,7 +1985,7 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A184" s="1">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -1954,7 +1993,7 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A185" s="1">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -1962,7 +2001,7 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A186" s="1">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -1970,7 +2009,7 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A187" s="1">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -1978,7 +2017,7 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A188" s="1">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -1986,7 +2025,7 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A189" s="1">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -1994,7 +2033,7 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A190" s="1">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -2002,7 +2041,7 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A191" s="1">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -2010,7 +2049,7 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A192" s="1">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -2018,7 +2057,7 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A193" s="1">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -2026,7 +2065,7 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A194" s="1">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -2034,7 +2073,7 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A195" s="1">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -2042,7 +2081,7 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A196" s="1">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -2050,7 +2089,7 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A197" s="1">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -2058,7 +2097,7 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A198" s="1">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -2066,7 +2105,7 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A199" s="1">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -2074,7 +2113,7 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A200" s="1">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -2082,7 +2121,7 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A201" s="1">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -2090,7 +2129,7 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A202" s="1">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -2098,7 +2137,7 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A203" s="1">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -2106,7 +2145,7 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A204" s="1">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -2114,7 +2153,7 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A205" s="1">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -2122,7 +2161,7 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A206" s="1">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -2130,7 +2169,7 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A207" s="1">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -2138,7 +2177,7 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A208" s="1">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -2146,7 +2185,7 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A209" s="1">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -2154,7 +2193,7 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A210" s="1">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -2162,7 +2201,7 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A211" s="1">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -2170,7 +2209,7 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A212" s="1">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -2178,7 +2217,7 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A213" s="1">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -2186,7 +2225,7 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A214" s="1">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -2194,7 +2233,7 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A215" s="1">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -2202,7 +2241,7 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A216" s="1">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -2210,7 +2249,7 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A217" s="1">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -2218,7 +2257,7 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A218" s="1">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -2226,7 +2265,7 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A219" s="1">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -2234,7 +2273,7 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A220" s="1">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -2242,7 +2281,7 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A221" s="1">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -2250,7 +2289,7 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A222" s="1">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -2258,7 +2297,7 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A223" s="1">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -2266,7 +2305,7 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A224" s="1">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -2274,7 +2313,7 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A225" s="1">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -2282,7 +2321,7 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A226" s="1">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -2290,7 +2329,7 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A227" s="1">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -2298,7 +2337,7 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A228" s="1">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -2306,7 +2345,7 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A229" s="1">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -2314,7 +2353,7 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A230" s="1">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -2322,7 +2361,7 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A231" s="1">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -2330,7 +2369,7 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A232" s="1">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -2338,7 +2377,7 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A233" s="1">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -2346,7 +2385,7 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A234" s="1">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -2354,7 +2393,7 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A235" s="1">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -2362,7 +2401,7 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A236" s="1">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -2370,7 +2409,7 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A237" s="1">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -2378,7 +2417,7 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A238" s="1">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -2386,7 +2425,7 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A239" s="1">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -2394,7 +2433,7 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A240" s="1">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -2402,7 +2441,7 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A241" s="1">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -2410,7 +2449,7 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A242" s="1">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -2418,7 +2457,7 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A243" s="1">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -2426,7 +2465,7 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A244" s="1">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -2434,7 +2473,7 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A245" s="1">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -2442,7 +2481,7 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A246" s="1">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -2450,7 +2489,7 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A247" s="1">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -2458,7 +2497,7 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A248" s="1">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -2466,7 +2505,7 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A249" s="1">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -2474,7 +2513,7 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A250" s="1">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -2482,7 +2521,7 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A251" s="1">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -2490,7 +2529,7 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A252" s="1">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -2498,7 +2537,7 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A253" s="1">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -2506,7 +2545,7 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A254" s="1">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -2514,7 +2553,7 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A255" s="1">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -2522,7 +2561,7 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A256" s="1">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -2530,11 +2569,27 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A257" s="1">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
       <c r="D257" s="1"/>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A258" s="1">
+        <v>253</v>
+      </c>
+      <c r="B258" s="1"/>
+      <c r="C258" s="1"/>
+      <c r="D258" s="1"/>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A259" s="1">
+        <v>254</v>
+      </c>
+      <c r="B259" s="1"/>
+      <c r="C259" s="1"/>
+      <c r="D259" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/プログラム作成履歴.xlsx
+++ b/プログラム作成履歴.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -106,6 +106,16 @@
     </rPh>
     <rPh sb="22" eb="24">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上記ファイルにcssを当てる</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ア</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -473,7 +483,7 @@
   <dimension ref="A1:D259"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -603,9 +613,15 @@
       <c r="A11" s="1">
         <v>6</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="B11" s="2">
+        <v>43435</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="1">

--- a/プログラム作成履歴.xlsx
+++ b/プログラム作成履歴.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -116,6 +116,25 @@
     </rPh>
     <rPh sb="11" eb="12">
       <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>07calculator.html</t>
+  </si>
+  <si>
+    <t>calculator.js</t>
+  </si>
+  <si>
+    <t>簡易電卓を作成</t>
+    <rPh sb="0" eb="2">
+      <t>カンイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>デンタク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -480,7 +499,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D259"/>
+  <dimension ref="A1:D260"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
@@ -627,21 +646,27 @@
       <c r="A12" s="1">
         <v>7</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="B12" s="2">
+        <v>43436</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="1">
-        <v>8</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -649,7 +674,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -657,7 +682,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -665,7 +690,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -673,7 +698,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -681,7 +706,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -689,7 +714,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -697,7 +722,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -705,7 +730,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -713,7 +738,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -721,7 +746,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -729,7 +754,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -737,7 +762,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -745,7 +770,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -753,7 +778,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -761,7 +786,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -769,7 +794,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -777,7 +802,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -785,7 +810,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -793,7 +818,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -801,7 +826,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -809,7 +834,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -817,7 +842,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -825,7 +850,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -833,7 +858,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -841,7 +866,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -849,7 +874,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -857,7 +882,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -865,7 +890,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -873,7 +898,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -881,7 +906,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -889,7 +914,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -897,7 +922,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -905,7 +930,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -913,7 +938,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -921,7 +946,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -929,7 +954,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -937,7 +962,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -945,7 +970,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -953,7 +978,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -961,7 +986,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -969,7 +994,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -977,7 +1002,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -985,7 +1010,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -993,7 +1018,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -1001,7 +1026,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -1009,7 +1034,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -1017,7 +1042,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -1025,7 +1050,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -1033,7 +1058,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" s="1">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -1041,7 +1066,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" s="1">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -1049,7 +1074,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -1057,7 +1082,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -1065,7 +1090,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -1073,7 +1098,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" s="1">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -1081,7 +1106,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69" s="1">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -1089,7 +1114,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70" s="1">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -1097,7 +1122,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71" s="1">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -1105,7 +1130,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72" s="1">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -1113,7 +1138,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -1121,7 +1146,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" s="1">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -1129,7 +1154,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75" s="1">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -1137,7 +1162,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76" s="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -1145,7 +1170,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77" s="1">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -1153,7 +1178,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78" s="1">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -1161,7 +1186,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79" s="1">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -1169,7 +1194,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80" s="1">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -1177,7 +1202,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81" s="1">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -1185,7 +1210,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A82" s="1">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -1193,7 +1218,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83" s="1">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -1201,7 +1226,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -1209,7 +1234,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85" s="1">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -1217,7 +1242,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86" s="1">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -1225,7 +1250,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A87" s="1">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -1233,7 +1258,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A88" s="1">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -1241,7 +1266,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A89" s="1">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -1249,7 +1274,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A90" s="1">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -1257,7 +1282,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A91" s="1">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -1265,7 +1290,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A92" s="1">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -1273,7 +1298,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A93" s="1">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -1281,7 +1306,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A94" s="1">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -1289,7 +1314,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A95" s="1">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -1297,7 +1322,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A96" s="1">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -1305,7 +1330,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A97" s="1">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -1313,7 +1338,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A98" s="1">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -1321,7 +1346,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A99" s="1">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -1329,7 +1354,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100" s="1">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -1337,7 +1362,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101" s="1">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -1345,7 +1370,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A102" s="1">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -1353,7 +1378,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A103" s="1">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -1361,7 +1386,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A104" s="1">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -1369,7 +1394,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A105" s="1">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -1377,7 +1402,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A106" s="1">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -1385,7 +1410,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A107" s="1">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -1393,7 +1418,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A108" s="1">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -1401,7 +1426,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A109" s="1">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -1409,7 +1434,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A110" s="1">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -1417,7 +1442,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A111" s="1">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -1425,7 +1450,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A112" s="1">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -1433,7 +1458,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A113" s="1">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -1441,7 +1466,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A114" s="1">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -1449,7 +1474,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A115" s="1">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -1457,7 +1482,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A116" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -1465,7 +1490,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A117" s="1">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -1473,7 +1498,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A118" s="1">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -1481,7 +1506,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A119" s="1">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -1489,7 +1514,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A120" s="1">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -1497,7 +1522,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A121" s="1">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -1505,7 +1530,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A122" s="1">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -1513,7 +1538,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A123" s="1">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -1521,7 +1546,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A124" s="1">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -1529,7 +1554,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A125" s="1">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -1537,7 +1562,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A126" s="1">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -1545,7 +1570,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A127" s="1">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -1553,7 +1578,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A128" s="1">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -1561,7 +1586,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A129" s="1">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -1569,7 +1594,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A130" s="1">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -1577,7 +1602,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A131" s="1">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -1585,7 +1610,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A132" s="1">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -1593,7 +1618,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A133" s="1">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -1601,7 +1626,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A134" s="1">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -1609,7 +1634,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A135" s="1">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -1617,7 +1642,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A136" s="1">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -1625,7 +1650,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A137" s="1">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -1633,7 +1658,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A138" s="1">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -1641,7 +1666,7 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A139" s="1">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -1649,7 +1674,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A140" s="1">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -1657,7 +1682,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A141" s="1">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -1665,7 +1690,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A142" s="1">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -1673,7 +1698,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A143" s="1">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -1681,7 +1706,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A144" s="1">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -1689,7 +1714,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A145" s="1">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -1697,7 +1722,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A146" s="1">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -1705,7 +1730,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A147" s="1">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -1713,7 +1738,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A148" s="1">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -1721,7 +1746,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A149" s="1">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -1729,7 +1754,7 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A150" s="1">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -1737,7 +1762,7 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A151" s="1">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -1745,7 +1770,7 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A152" s="1">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -1753,7 +1778,7 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A153" s="1">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -1761,7 +1786,7 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A154" s="1">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -1769,7 +1794,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A155" s="1">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -1777,7 +1802,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A156" s="1">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -1785,7 +1810,7 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A157" s="1">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -1793,7 +1818,7 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A158" s="1">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -1801,7 +1826,7 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A159" s="1">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -1809,7 +1834,7 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A160" s="1">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -1817,7 +1842,7 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A161" s="1">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -1825,7 +1850,7 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A162" s="1">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -1833,7 +1858,7 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A163" s="1">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -1841,7 +1866,7 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A164" s="1">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -1849,7 +1874,7 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A165" s="1">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -1857,7 +1882,7 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A166" s="1">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -1865,7 +1890,7 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A167" s="1">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -1873,7 +1898,7 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A168" s="1">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -1881,7 +1906,7 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A169" s="1">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -1889,7 +1914,7 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A170" s="1">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -1897,7 +1922,7 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A171" s="1">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -1905,7 +1930,7 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A172" s="1">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -1913,7 +1938,7 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A173" s="1">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -1921,7 +1946,7 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A174" s="1">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -1929,7 +1954,7 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A175" s="1">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -1937,7 +1962,7 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A176" s="1">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -1945,7 +1970,7 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A177" s="1">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -1953,7 +1978,7 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A178" s="1">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -1961,7 +1986,7 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A179" s="1">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -1969,7 +1994,7 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A180" s="1">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -1977,7 +2002,7 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A181" s="1">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -1985,7 +2010,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A182" s="1">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -1993,7 +2018,7 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A183" s="1">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -2001,7 +2026,7 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A184" s="1">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -2009,7 +2034,7 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A185" s="1">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -2017,7 +2042,7 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A186" s="1">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -2025,7 +2050,7 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A187" s="1">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -2033,7 +2058,7 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A188" s="1">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -2041,7 +2066,7 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A189" s="1">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -2049,7 +2074,7 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A190" s="1">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -2057,7 +2082,7 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A191" s="1">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -2065,7 +2090,7 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A192" s="1">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -2073,7 +2098,7 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A193" s="1">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -2081,7 +2106,7 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A194" s="1">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -2089,7 +2114,7 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A195" s="1">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -2097,7 +2122,7 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A196" s="1">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -2105,7 +2130,7 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A197" s="1">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -2113,7 +2138,7 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A198" s="1">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -2121,7 +2146,7 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A199" s="1">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -2129,7 +2154,7 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A200" s="1">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -2137,7 +2162,7 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A201" s="1">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -2145,7 +2170,7 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A202" s="1">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -2153,7 +2178,7 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A203" s="1">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -2161,7 +2186,7 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A204" s="1">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -2169,7 +2194,7 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A205" s="1">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -2177,7 +2202,7 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A206" s="1">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -2185,7 +2210,7 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A207" s="1">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -2193,7 +2218,7 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A208" s="1">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -2201,7 +2226,7 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A209" s="1">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -2209,7 +2234,7 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A210" s="1">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -2217,7 +2242,7 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A211" s="1">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -2225,7 +2250,7 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A212" s="1">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -2233,7 +2258,7 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A213" s="1">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -2241,7 +2266,7 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A214" s="1">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -2249,7 +2274,7 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A215" s="1">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -2257,7 +2282,7 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A216" s="1">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -2265,7 +2290,7 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A217" s="1">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -2273,7 +2298,7 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A218" s="1">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -2281,7 +2306,7 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A219" s="1">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -2289,7 +2314,7 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A220" s="1">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -2297,7 +2322,7 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A221" s="1">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -2305,7 +2330,7 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A222" s="1">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -2313,7 +2338,7 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A223" s="1">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -2321,7 +2346,7 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A224" s="1">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -2329,7 +2354,7 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A225" s="1">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -2337,7 +2362,7 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A226" s="1">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -2345,7 +2370,7 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A227" s="1">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -2353,7 +2378,7 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A228" s="1">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -2361,7 +2386,7 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A229" s="1">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -2369,7 +2394,7 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A230" s="1">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -2377,7 +2402,7 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A231" s="1">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -2385,7 +2410,7 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A232" s="1">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -2393,7 +2418,7 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A233" s="1">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -2401,7 +2426,7 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A234" s="1">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -2409,7 +2434,7 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A235" s="1">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -2417,7 +2442,7 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A236" s="1">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -2425,7 +2450,7 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A237" s="1">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -2433,7 +2458,7 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A238" s="1">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -2441,7 +2466,7 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A239" s="1">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -2449,7 +2474,7 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A240" s="1">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -2457,7 +2482,7 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A241" s="1">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -2465,7 +2490,7 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A242" s="1">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -2473,7 +2498,7 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A243" s="1">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -2481,7 +2506,7 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A244" s="1">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -2489,7 +2514,7 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A245" s="1">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -2497,7 +2522,7 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A246" s="1">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -2505,7 +2530,7 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A247" s="1">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -2513,7 +2538,7 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A248" s="1">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -2521,7 +2546,7 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A249" s="1">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -2529,7 +2554,7 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A250" s="1">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -2537,7 +2562,7 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A251" s="1">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -2545,7 +2570,7 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A252" s="1">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -2553,7 +2578,7 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A253" s="1">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -2561,7 +2586,7 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A254" s="1">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -2569,7 +2594,7 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A255" s="1">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -2577,7 +2602,7 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A256" s="1">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -2585,7 +2610,7 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A257" s="1">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -2593,7 +2618,7 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A258" s="1">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -2601,11 +2626,19 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A259" s="1">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A260" s="1">
+        <v>254</v>
+      </c>
+      <c r="B260" s="1"/>
+      <c r="C260" s="1"/>
+      <c r="D260" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/プログラム作成履歴.xlsx
+++ b/プログラム作成履歴.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -135,6 +135,25 @@
     </rPh>
     <rPh sb="5" eb="7">
       <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>08inputKeyboard.html</t>
+  </si>
+  <si>
+    <t>inputKeyboard.js</t>
+  </si>
+  <si>
+    <t>キーボードからの文字入力を取得</t>
+    <rPh sb="8" eb="10">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュトク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -499,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D260"/>
+  <dimension ref="A1:D261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -668,21 +687,27 @@
       <c r="A14" s="1">
         <v>8</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="B14" s="2">
+        <v>43436</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="1">
-        <v>9</v>
-      </c>
+      <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -690,7 +715,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -698,7 +723,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -706,7 +731,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -714,7 +739,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -722,7 +747,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -730,7 +755,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -738,7 +763,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -746,7 +771,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -754,7 +779,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -762,7 +787,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -770,7 +795,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -778,7 +803,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -786,7 +811,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -794,7 +819,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -802,7 +827,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -810,7 +835,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -818,7 +843,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -826,7 +851,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -834,7 +859,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -842,7 +867,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -850,7 +875,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -858,7 +883,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -866,7 +891,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -874,7 +899,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -882,7 +907,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -890,7 +915,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -898,7 +923,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -906,7 +931,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -914,7 +939,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -922,7 +947,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -930,7 +955,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -938,7 +963,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -946,7 +971,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -954,7 +979,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -962,7 +987,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -970,7 +995,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -978,7 +1003,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -986,7 +1011,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -994,7 +1019,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -1002,7 +1027,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -1010,7 +1035,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -1018,7 +1043,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -1026,7 +1051,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -1034,7 +1059,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -1042,7 +1067,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -1050,7 +1075,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -1058,7 +1083,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -1066,7 +1091,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" s="1">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -1074,7 +1099,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" s="1">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -1082,7 +1107,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -1090,7 +1115,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -1098,7 +1123,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -1106,7 +1131,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69" s="1">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -1114,7 +1139,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70" s="1">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -1122,7 +1147,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71" s="1">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -1130,7 +1155,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72" s="1">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -1138,7 +1163,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -1146,7 +1171,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" s="1">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -1154,7 +1179,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75" s="1">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -1162,7 +1187,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76" s="1">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -1170,7 +1195,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77" s="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -1178,7 +1203,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78" s="1">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -1186,7 +1211,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79" s="1">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -1194,7 +1219,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80" s="1">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -1202,7 +1227,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81" s="1">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -1210,7 +1235,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A82" s="1">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -1218,7 +1243,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83" s="1">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -1226,7 +1251,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84" s="1">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -1234,7 +1259,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -1242,7 +1267,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86" s="1">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -1250,7 +1275,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A87" s="1">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -1258,7 +1283,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A88" s="1">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -1266,7 +1291,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A89" s="1">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -1274,7 +1299,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A90" s="1">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -1282,7 +1307,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A91" s="1">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -1290,7 +1315,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A92" s="1">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -1298,7 +1323,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A93" s="1">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -1306,7 +1331,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A94" s="1">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -1314,7 +1339,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A95" s="1">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -1322,7 +1347,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A96" s="1">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -1330,7 +1355,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A97" s="1">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -1338,7 +1363,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A98" s="1">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -1346,7 +1371,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A99" s="1">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -1354,7 +1379,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100" s="1">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -1362,7 +1387,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101" s="1">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -1370,7 +1395,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A102" s="1">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -1378,7 +1403,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A103" s="1">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -1386,7 +1411,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A104" s="1">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -1394,7 +1419,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A105" s="1">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -1402,7 +1427,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A106" s="1">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -1410,7 +1435,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A107" s="1">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -1418,7 +1443,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A108" s="1">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -1426,7 +1451,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A109" s="1">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -1434,7 +1459,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A110" s="1">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -1442,7 +1467,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A111" s="1">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -1450,7 +1475,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A112" s="1">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -1458,7 +1483,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A113" s="1">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -1466,7 +1491,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A114" s="1">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -1474,7 +1499,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A115" s="1">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -1482,7 +1507,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A116" s="1">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -1490,7 +1515,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A117" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -1498,7 +1523,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A118" s="1">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -1506,7 +1531,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A119" s="1">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -1514,7 +1539,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A120" s="1">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -1522,7 +1547,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A121" s="1">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -1530,7 +1555,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A122" s="1">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -1538,7 +1563,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A123" s="1">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -1546,7 +1571,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A124" s="1">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -1554,7 +1579,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A125" s="1">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -1562,7 +1587,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A126" s="1">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -1570,7 +1595,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A127" s="1">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -1578,7 +1603,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A128" s="1">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -1586,7 +1611,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A129" s="1">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -1594,7 +1619,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A130" s="1">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -1602,7 +1627,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A131" s="1">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -1610,7 +1635,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A132" s="1">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -1618,7 +1643,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A133" s="1">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -1626,7 +1651,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A134" s="1">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -1634,7 +1659,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A135" s="1">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -1642,7 +1667,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A136" s="1">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -1650,7 +1675,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A137" s="1">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -1658,7 +1683,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A138" s="1">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -1666,7 +1691,7 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A139" s="1">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -1674,7 +1699,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A140" s="1">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -1682,7 +1707,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A141" s="1">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -1690,7 +1715,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A142" s="1">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -1698,7 +1723,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A143" s="1">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -1706,7 +1731,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A144" s="1">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -1714,7 +1739,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A145" s="1">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -1722,7 +1747,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A146" s="1">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -1730,7 +1755,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A147" s="1">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -1738,7 +1763,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A148" s="1">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -1746,7 +1771,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A149" s="1">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -1754,7 +1779,7 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A150" s="1">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -1762,7 +1787,7 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A151" s="1">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -1770,7 +1795,7 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A152" s="1">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -1778,7 +1803,7 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A153" s="1">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -1786,7 +1811,7 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A154" s="1">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -1794,7 +1819,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A155" s="1">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -1802,7 +1827,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A156" s="1">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -1810,7 +1835,7 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A157" s="1">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -1818,7 +1843,7 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A158" s="1">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -1826,7 +1851,7 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A159" s="1">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -1834,7 +1859,7 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A160" s="1">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -1842,7 +1867,7 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A161" s="1">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -1850,7 +1875,7 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A162" s="1">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -1858,7 +1883,7 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A163" s="1">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -1866,7 +1891,7 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A164" s="1">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -1874,7 +1899,7 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A165" s="1">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -1882,7 +1907,7 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A166" s="1">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -1890,7 +1915,7 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A167" s="1">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -1898,7 +1923,7 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A168" s="1">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -1906,7 +1931,7 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A169" s="1">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -1914,7 +1939,7 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A170" s="1">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -1922,7 +1947,7 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A171" s="1">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -1930,7 +1955,7 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A172" s="1">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -1938,7 +1963,7 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A173" s="1">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -1946,7 +1971,7 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A174" s="1">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -1954,7 +1979,7 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A175" s="1">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -1962,7 +1987,7 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A176" s="1">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -1970,7 +1995,7 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A177" s="1">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -1978,7 +2003,7 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A178" s="1">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -1986,7 +2011,7 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A179" s="1">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -1994,7 +2019,7 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A180" s="1">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -2002,7 +2027,7 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A181" s="1">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -2010,7 +2035,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A182" s="1">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -2018,7 +2043,7 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A183" s="1">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -2026,7 +2051,7 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A184" s="1">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -2034,7 +2059,7 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A185" s="1">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -2042,7 +2067,7 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A186" s="1">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -2050,7 +2075,7 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A187" s="1">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -2058,7 +2083,7 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A188" s="1">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -2066,7 +2091,7 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A189" s="1">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -2074,7 +2099,7 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A190" s="1">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -2082,7 +2107,7 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A191" s="1">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -2090,7 +2115,7 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A192" s="1">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -2098,7 +2123,7 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A193" s="1">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -2106,7 +2131,7 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A194" s="1">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -2114,7 +2139,7 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A195" s="1">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -2122,7 +2147,7 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A196" s="1">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -2130,7 +2155,7 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A197" s="1">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -2138,7 +2163,7 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A198" s="1">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -2146,7 +2171,7 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A199" s="1">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -2154,7 +2179,7 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A200" s="1">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -2162,7 +2187,7 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A201" s="1">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -2170,7 +2195,7 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A202" s="1">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -2178,7 +2203,7 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A203" s="1">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -2186,7 +2211,7 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A204" s="1">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -2194,7 +2219,7 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A205" s="1">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -2202,7 +2227,7 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A206" s="1">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -2210,7 +2235,7 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A207" s="1">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -2218,7 +2243,7 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A208" s="1">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -2226,7 +2251,7 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A209" s="1">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -2234,7 +2259,7 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A210" s="1">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -2242,7 +2267,7 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A211" s="1">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -2250,7 +2275,7 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A212" s="1">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -2258,7 +2283,7 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A213" s="1">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -2266,7 +2291,7 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A214" s="1">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -2274,7 +2299,7 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A215" s="1">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -2282,7 +2307,7 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A216" s="1">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -2290,7 +2315,7 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A217" s="1">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -2298,7 +2323,7 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A218" s="1">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -2306,7 +2331,7 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A219" s="1">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -2314,7 +2339,7 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A220" s="1">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -2322,7 +2347,7 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A221" s="1">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -2330,7 +2355,7 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A222" s="1">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -2338,7 +2363,7 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A223" s="1">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -2346,7 +2371,7 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A224" s="1">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -2354,7 +2379,7 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A225" s="1">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -2362,7 +2387,7 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A226" s="1">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -2370,7 +2395,7 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A227" s="1">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -2378,7 +2403,7 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A228" s="1">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -2386,7 +2411,7 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A229" s="1">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -2394,7 +2419,7 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A230" s="1">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -2402,7 +2427,7 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A231" s="1">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -2410,7 +2435,7 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A232" s="1">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -2418,7 +2443,7 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A233" s="1">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -2426,7 +2451,7 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A234" s="1">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -2434,7 +2459,7 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A235" s="1">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -2442,7 +2467,7 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A236" s="1">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -2450,7 +2475,7 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A237" s="1">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -2458,7 +2483,7 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A238" s="1">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -2466,7 +2491,7 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A239" s="1">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -2474,7 +2499,7 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A240" s="1">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -2482,7 +2507,7 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A241" s="1">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -2490,7 +2515,7 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A242" s="1">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -2498,7 +2523,7 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A243" s="1">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -2506,7 +2531,7 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A244" s="1">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -2514,7 +2539,7 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A245" s="1">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -2522,7 +2547,7 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A246" s="1">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -2530,7 +2555,7 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A247" s="1">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -2538,7 +2563,7 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A248" s="1">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -2546,7 +2571,7 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A249" s="1">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -2554,7 +2579,7 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A250" s="1">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -2562,7 +2587,7 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A251" s="1">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -2570,7 +2595,7 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A252" s="1">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -2578,7 +2603,7 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A253" s="1">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -2586,7 +2611,7 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A254" s="1">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -2594,7 +2619,7 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A255" s="1">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -2602,7 +2627,7 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A256" s="1">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -2610,7 +2635,7 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A257" s="1">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -2618,7 +2643,7 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A258" s="1">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -2626,7 +2651,7 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A259" s="1">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -2634,11 +2659,19 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A260" s="1">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
       <c r="D260" s="1"/>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A261" s="1">
+        <v>254</v>
+      </c>
+      <c r="B261" s="1"/>
+      <c r="C261" s="1"/>
+      <c r="D261" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/プログラム作成履歴.xlsx
+++ b/プログラム作成履歴.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -154,6 +154,28 @@
     </rPh>
     <rPh sb="13" eb="15">
       <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>09addtext.html</t>
+  </si>
+  <si>
+    <t>addtext.js</t>
+  </si>
+  <si>
+    <t>p要素をボタンクリックで追加、削除処理</t>
+    <rPh sb="1" eb="3">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ショリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -518,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D261"/>
+  <dimension ref="A1:D262"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -709,21 +731,27 @@
       <c r="A16" s="1">
         <v>9</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="B16" s="2">
+        <v>43436</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="1">
-        <v>10</v>
-      </c>
+      <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -731,7 +759,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -739,7 +767,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -747,7 +775,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -755,7 +783,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -763,7 +791,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -771,7 +799,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -779,7 +807,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -787,7 +815,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -795,7 +823,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -803,7 +831,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -811,7 +839,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -819,7 +847,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -827,7 +855,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -835,7 +863,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -843,7 +871,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -851,7 +879,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -859,7 +887,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -867,7 +895,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -875,7 +903,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -883,7 +911,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -891,7 +919,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -899,7 +927,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -907,7 +935,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -915,7 +943,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -923,7 +951,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -931,7 +959,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -939,7 +967,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -947,7 +975,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -955,7 +983,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -963,7 +991,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -971,7 +999,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -979,7 +1007,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -987,7 +1015,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -995,7 +1023,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -1003,7 +1031,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -1011,7 +1039,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -1019,7 +1047,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -1027,7 +1055,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -1035,7 +1063,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -1043,7 +1071,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -1051,7 +1079,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -1059,7 +1087,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -1067,7 +1095,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -1075,7 +1103,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -1083,7 +1111,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -1091,7 +1119,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -1099,7 +1127,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" s="1">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -1107,7 +1135,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" s="1">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -1115,7 +1143,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -1123,7 +1151,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -1131,7 +1159,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -1139,7 +1167,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70" s="1">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -1147,7 +1175,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71" s="1">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -1155,7 +1183,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72" s="1">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -1163,7 +1191,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -1171,7 +1199,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" s="1">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -1179,7 +1207,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75" s="1">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -1187,7 +1215,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76" s="1">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -1195,7 +1223,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77" s="1">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -1203,7 +1231,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78" s="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -1211,7 +1239,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79" s="1">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -1219,7 +1247,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80" s="1">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -1227,7 +1255,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81" s="1">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -1235,7 +1263,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A82" s="1">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -1243,7 +1271,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83" s="1">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -1251,7 +1279,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84" s="1">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -1259,7 +1287,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85" s="1">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -1267,7 +1295,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -1275,7 +1303,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A87" s="1">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -1283,7 +1311,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A88" s="1">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -1291,7 +1319,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A89" s="1">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -1299,7 +1327,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A90" s="1">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -1307,7 +1335,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A91" s="1">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -1315,7 +1343,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A92" s="1">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -1323,7 +1351,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A93" s="1">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -1331,7 +1359,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A94" s="1">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -1339,7 +1367,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A95" s="1">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -1347,7 +1375,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A96" s="1">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -1355,7 +1383,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A97" s="1">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -1363,7 +1391,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A98" s="1">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -1371,7 +1399,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A99" s="1">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -1379,7 +1407,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100" s="1">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -1387,7 +1415,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101" s="1">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -1395,7 +1423,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A102" s="1">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -1403,7 +1431,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A103" s="1">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -1411,7 +1439,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A104" s="1">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -1419,7 +1447,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A105" s="1">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -1427,7 +1455,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A106" s="1">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -1435,7 +1463,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A107" s="1">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -1443,7 +1471,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A108" s="1">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -1451,7 +1479,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A109" s="1">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -1459,7 +1487,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A110" s="1">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -1467,7 +1495,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A111" s="1">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -1475,7 +1503,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A112" s="1">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -1483,7 +1511,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A113" s="1">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -1491,7 +1519,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A114" s="1">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -1499,7 +1527,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A115" s="1">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -1507,7 +1535,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A116" s="1">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -1515,7 +1543,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A117" s="1">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -1523,7 +1551,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A118" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -1531,7 +1559,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A119" s="1">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -1539,7 +1567,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A120" s="1">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -1547,7 +1575,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A121" s="1">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -1555,7 +1583,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A122" s="1">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -1563,7 +1591,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A123" s="1">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -1571,7 +1599,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A124" s="1">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -1579,7 +1607,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A125" s="1">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -1587,7 +1615,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A126" s="1">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -1595,7 +1623,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A127" s="1">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -1603,7 +1631,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A128" s="1">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -1611,7 +1639,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A129" s="1">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -1619,7 +1647,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A130" s="1">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -1627,7 +1655,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A131" s="1">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -1635,7 +1663,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A132" s="1">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -1643,7 +1671,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A133" s="1">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -1651,7 +1679,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A134" s="1">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -1659,7 +1687,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A135" s="1">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -1667,7 +1695,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A136" s="1">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -1675,7 +1703,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A137" s="1">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -1683,7 +1711,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A138" s="1">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -1691,7 +1719,7 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A139" s="1">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -1699,7 +1727,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A140" s="1">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -1707,7 +1735,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A141" s="1">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -1715,7 +1743,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A142" s="1">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -1723,7 +1751,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A143" s="1">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -1731,7 +1759,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A144" s="1">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -1739,7 +1767,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A145" s="1">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -1747,7 +1775,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A146" s="1">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -1755,7 +1783,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A147" s="1">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -1763,7 +1791,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A148" s="1">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -1771,7 +1799,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A149" s="1">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -1779,7 +1807,7 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A150" s="1">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -1787,7 +1815,7 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A151" s="1">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -1795,7 +1823,7 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A152" s="1">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -1803,7 +1831,7 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A153" s="1">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -1811,7 +1839,7 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A154" s="1">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -1819,7 +1847,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A155" s="1">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -1827,7 +1855,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A156" s="1">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -1835,7 +1863,7 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A157" s="1">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -1843,7 +1871,7 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A158" s="1">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -1851,7 +1879,7 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A159" s="1">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -1859,7 +1887,7 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A160" s="1">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -1867,7 +1895,7 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A161" s="1">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -1875,7 +1903,7 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A162" s="1">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -1883,7 +1911,7 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A163" s="1">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -1891,7 +1919,7 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A164" s="1">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -1899,7 +1927,7 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A165" s="1">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -1907,7 +1935,7 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A166" s="1">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -1915,7 +1943,7 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A167" s="1">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -1923,7 +1951,7 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A168" s="1">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -1931,7 +1959,7 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A169" s="1">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -1939,7 +1967,7 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A170" s="1">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -1947,7 +1975,7 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A171" s="1">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -1955,7 +1983,7 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A172" s="1">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -1963,7 +1991,7 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A173" s="1">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -1971,7 +1999,7 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A174" s="1">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -1979,7 +2007,7 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A175" s="1">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -1987,7 +2015,7 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A176" s="1">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -1995,7 +2023,7 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A177" s="1">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -2003,7 +2031,7 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A178" s="1">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -2011,7 +2039,7 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A179" s="1">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -2019,7 +2047,7 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A180" s="1">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -2027,7 +2055,7 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A181" s="1">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -2035,7 +2063,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A182" s="1">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -2043,7 +2071,7 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A183" s="1">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -2051,7 +2079,7 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A184" s="1">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -2059,7 +2087,7 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A185" s="1">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -2067,7 +2095,7 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A186" s="1">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -2075,7 +2103,7 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A187" s="1">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -2083,7 +2111,7 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A188" s="1">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -2091,7 +2119,7 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A189" s="1">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -2099,7 +2127,7 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A190" s="1">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -2107,7 +2135,7 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A191" s="1">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -2115,7 +2143,7 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A192" s="1">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -2123,7 +2151,7 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A193" s="1">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -2131,7 +2159,7 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A194" s="1">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -2139,7 +2167,7 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A195" s="1">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -2147,7 +2175,7 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A196" s="1">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -2155,7 +2183,7 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A197" s="1">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -2163,7 +2191,7 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A198" s="1">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -2171,7 +2199,7 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A199" s="1">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -2179,7 +2207,7 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A200" s="1">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -2187,7 +2215,7 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A201" s="1">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -2195,7 +2223,7 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A202" s="1">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -2203,7 +2231,7 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A203" s="1">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -2211,7 +2239,7 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A204" s="1">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -2219,7 +2247,7 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A205" s="1">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -2227,7 +2255,7 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A206" s="1">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -2235,7 +2263,7 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A207" s="1">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -2243,7 +2271,7 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A208" s="1">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -2251,7 +2279,7 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A209" s="1">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -2259,7 +2287,7 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A210" s="1">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -2267,7 +2295,7 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A211" s="1">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -2275,7 +2303,7 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A212" s="1">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -2283,7 +2311,7 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A213" s="1">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -2291,7 +2319,7 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A214" s="1">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -2299,7 +2327,7 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A215" s="1">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -2307,7 +2335,7 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A216" s="1">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -2315,7 +2343,7 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A217" s="1">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -2323,7 +2351,7 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A218" s="1">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -2331,7 +2359,7 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A219" s="1">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -2339,7 +2367,7 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A220" s="1">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -2347,7 +2375,7 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A221" s="1">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -2355,7 +2383,7 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A222" s="1">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -2363,7 +2391,7 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A223" s="1">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -2371,7 +2399,7 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A224" s="1">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -2379,7 +2407,7 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A225" s="1">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -2387,7 +2415,7 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A226" s="1">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -2395,7 +2423,7 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A227" s="1">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -2403,7 +2431,7 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A228" s="1">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -2411,7 +2439,7 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A229" s="1">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -2419,7 +2447,7 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A230" s="1">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -2427,7 +2455,7 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A231" s="1">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -2435,7 +2463,7 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A232" s="1">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -2443,7 +2471,7 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A233" s="1">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -2451,7 +2479,7 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A234" s="1">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -2459,7 +2487,7 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A235" s="1">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -2467,7 +2495,7 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A236" s="1">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -2475,7 +2503,7 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A237" s="1">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -2483,7 +2511,7 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A238" s="1">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -2491,7 +2519,7 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A239" s="1">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -2499,7 +2527,7 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A240" s="1">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -2507,7 +2535,7 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A241" s="1">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -2515,7 +2543,7 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A242" s="1">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -2523,7 +2551,7 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A243" s="1">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -2531,7 +2559,7 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A244" s="1">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -2539,7 +2567,7 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A245" s="1">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -2547,7 +2575,7 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A246" s="1">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -2555,7 +2583,7 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A247" s="1">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -2563,7 +2591,7 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A248" s="1">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -2571,7 +2599,7 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A249" s="1">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -2579,7 +2607,7 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A250" s="1">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -2587,7 +2615,7 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A251" s="1">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -2595,7 +2623,7 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A252" s="1">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -2603,7 +2631,7 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A253" s="1">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -2611,7 +2639,7 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A254" s="1">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -2619,7 +2647,7 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A255" s="1">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -2627,7 +2655,7 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A256" s="1">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -2635,7 +2663,7 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A257" s="1">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -2643,7 +2671,7 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A258" s="1">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -2651,7 +2679,7 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A259" s="1">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -2659,7 +2687,7 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A260" s="1">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -2667,11 +2695,19 @@
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A261" s="1">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
       <c r="D261" s="1"/>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A262" s="1">
+        <v>254</v>
+      </c>
+      <c r="B262" s="1"/>
+      <c r="C262" s="1"/>
+      <c r="D262" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/プログラム作成履歴.xlsx
+++ b/プログラム作成履歴.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -177,6 +177,39 @@
     <rPh sb="17" eb="19">
       <t>ショリ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電卓のキーボード入力に対応</t>
+    <rPh sb="0" eb="2">
+      <t>デンタク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>p要素に、div要素と、クリックして、変化するように変更</t>
+    <rPh sb="1" eb="3">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>design9</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -540,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D262"/>
+  <dimension ref="A1:D264"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -753,37 +786,49 @@
       <c r="A18" s="1">
         <v>10</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="B18" s="2">
+        <v>43443</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>11</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="B19" s="2">
+        <v>43443</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="1">
-        <v>12</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+      <c r="A20" s="1"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="1">
-        <v>13</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+      <c r="A21" s="1"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -791,7 +836,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -799,7 +844,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -807,7 +852,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -815,7 +860,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -823,7 +868,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -831,7 +876,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -839,7 +884,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -847,7 +892,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -855,7 +900,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -863,7 +908,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -871,7 +916,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -879,7 +924,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -887,7 +932,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -895,7 +940,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -903,7 +948,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -911,7 +956,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -919,7 +964,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -927,7 +972,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -935,7 +980,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -943,7 +988,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -951,7 +996,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -959,7 +1004,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -967,7 +1012,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -975,7 +1020,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -983,7 +1028,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -991,7 +1036,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -999,7 +1044,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -1007,7 +1052,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -1015,7 +1060,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -1023,7 +1068,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -1031,7 +1076,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -1039,7 +1084,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -1047,7 +1092,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -1055,7 +1100,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -1063,7 +1108,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -1071,7 +1116,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -1079,7 +1124,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" s="1">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -1087,7 +1132,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" s="1">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -1095,7 +1140,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61" s="1">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -1103,7 +1148,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62" s="1">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -1111,7 +1156,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" s="1">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -1119,7 +1164,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" s="1">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -1127,7 +1172,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" s="1">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -1135,7 +1180,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" s="1">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -1143,7 +1188,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" s="1">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -1151,7 +1196,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" s="1">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -1159,7 +1204,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69" s="1">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -1167,7 +1212,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70" s="1">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -1175,7 +1220,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71" s="1">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -1183,7 +1228,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72" s="1">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -1191,7 +1236,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -1199,7 +1244,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" s="1">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -1207,7 +1252,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75" s="1">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -1215,7 +1260,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76" s="1">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -1223,7 +1268,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77" s="1">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -1231,7 +1276,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78" s="1">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -1239,7 +1284,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79" s="1">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -1247,7 +1292,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80" s="1">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -1255,7 +1300,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81" s="1">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -1263,7 +1308,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A82" s="1">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -1271,7 +1316,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83" s="1">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -1279,7 +1324,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84" s="1">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -1287,7 +1332,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85" s="1">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -1295,7 +1340,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86" s="1">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -1303,7 +1348,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A87" s="1">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -1311,7 +1356,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A88" s="1">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -1319,7 +1364,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A89" s="1">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -1327,7 +1372,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A90" s="1">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -1335,7 +1380,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A91" s="1">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -1343,7 +1388,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A92" s="1">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -1351,7 +1396,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A93" s="1">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -1359,7 +1404,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A94" s="1">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -1367,7 +1412,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A95" s="1">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -1375,7 +1420,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A96" s="1">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -1383,7 +1428,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A97" s="1">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -1391,7 +1436,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A98" s="1">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -1399,7 +1444,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A99" s="1">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -1407,7 +1452,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100" s="1">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -1415,7 +1460,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101" s="1">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -1423,7 +1468,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A102" s="1">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -1431,7 +1476,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A103" s="1">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -1439,7 +1484,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A104" s="1">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -1447,7 +1492,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A105" s="1">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -1455,7 +1500,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A106" s="1">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -1463,7 +1508,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A107" s="1">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -1471,7 +1516,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A108" s="1">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -1479,7 +1524,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A109" s="1">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -1487,7 +1532,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A110" s="1">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -1495,7 +1540,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A111" s="1">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -1503,7 +1548,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A112" s="1">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -1511,7 +1556,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A113" s="1">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -1519,7 +1564,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A114" s="1">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -1527,7 +1572,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A115" s="1">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -1535,7 +1580,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A116" s="1">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -1543,7 +1588,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A117" s="1">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -1551,7 +1596,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A118" s="1">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -1559,7 +1604,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A119" s="1">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -1567,7 +1612,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A120" s="1">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -1575,7 +1620,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A121" s="1">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -1583,7 +1628,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A122" s="1">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -1591,7 +1636,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A123" s="1">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -1599,7 +1644,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A124" s="1">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -1607,7 +1652,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A125" s="1">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -1615,7 +1660,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A126" s="1">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -1623,7 +1668,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A127" s="1">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -1631,7 +1676,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A128" s="1">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -1639,7 +1684,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A129" s="1">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -1647,7 +1692,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A130" s="1">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -1655,7 +1700,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A131" s="1">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -1663,7 +1708,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A132" s="1">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -1671,7 +1716,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A133" s="1">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -1679,7 +1724,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A134" s="1">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -1687,7 +1732,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A135" s="1">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -1695,7 +1740,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A136" s="1">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -1703,7 +1748,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A137" s="1">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -1711,7 +1756,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A138" s="1">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -1719,7 +1764,7 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A139" s="1">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -1727,7 +1772,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A140" s="1">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -1735,7 +1780,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A141" s="1">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -1743,7 +1788,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A142" s="1">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -1751,7 +1796,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A143" s="1">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -1759,7 +1804,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A144" s="1">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -1767,7 +1812,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A145" s="1">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -1775,7 +1820,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A146" s="1">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -1783,7 +1828,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A147" s="1">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -1791,7 +1836,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A148" s="1">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -1799,7 +1844,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A149" s="1">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -1807,7 +1852,7 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A150" s="1">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -1815,7 +1860,7 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A151" s="1">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -1823,7 +1868,7 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A152" s="1">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -1831,7 +1876,7 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A153" s="1">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -1839,7 +1884,7 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A154" s="1">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -1847,7 +1892,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A155" s="1">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -1855,7 +1900,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A156" s="1">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -1863,7 +1908,7 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A157" s="1">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -1871,7 +1916,7 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A158" s="1">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -1879,7 +1924,7 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A159" s="1">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -1887,7 +1932,7 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A160" s="1">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -1895,7 +1940,7 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A161" s="1">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -1903,7 +1948,7 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A162" s="1">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -1911,7 +1956,7 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A163" s="1">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -1919,7 +1964,7 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A164" s="1">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -1927,7 +1972,7 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A165" s="1">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -1935,7 +1980,7 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A166" s="1">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -1943,7 +1988,7 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A167" s="1">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -1951,7 +1996,7 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A168" s="1">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -1959,7 +2004,7 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A169" s="1">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -1967,7 +2012,7 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A170" s="1">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -1975,7 +2020,7 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A171" s="1">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -1983,7 +2028,7 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A172" s="1">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -1991,7 +2036,7 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A173" s="1">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -1999,7 +2044,7 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A174" s="1">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -2007,7 +2052,7 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A175" s="1">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -2015,7 +2060,7 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A176" s="1">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -2023,7 +2068,7 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A177" s="1">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -2031,7 +2076,7 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A178" s="1">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -2039,7 +2084,7 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A179" s="1">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -2047,7 +2092,7 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A180" s="1">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -2055,7 +2100,7 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A181" s="1">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -2063,7 +2108,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A182" s="1">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -2071,7 +2116,7 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A183" s="1">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -2079,7 +2124,7 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A184" s="1">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -2087,7 +2132,7 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A185" s="1">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -2095,7 +2140,7 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A186" s="1">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -2103,7 +2148,7 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A187" s="1">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -2111,7 +2156,7 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A188" s="1">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -2119,7 +2164,7 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A189" s="1">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -2127,7 +2172,7 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A190" s="1">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -2135,7 +2180,7 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A191" s="1">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -2143,7 +2188,7 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A192" s="1">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -2151,7 +2196,7 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A193" s="1">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -2159,7 +2204,7 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A194" s="1">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -2167,7 +2212,7 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A195" s="1">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -2175,7 +2220,7 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A196" s="1">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -2183,7 +2228,7 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A197" s="1">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -2191,7 +2236,7 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A198" s="1">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -2199,7 +2244,7 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A199" s="1">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -2207,7 +2252,7 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A200" s="1">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -2215,7 +2260,7 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A201" s="1">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -2223,7 +2268,7 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A202" s="1">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -2231,7 +2276,7 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A203" s="1">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -2239,7 +2284,7 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A204" s="1">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -2247,7 +2292,7 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A205" s="1">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -2255,7 +2300,7 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A206" s="1">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -2263,7 +2308,7 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A207" s="1">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -2271,7 +2316,7 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A208" s="1">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -2279,7 +2324,7 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A209" s="1">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -2287,7 +2332,7 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A210" s="1">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -2295,7 +2340,7 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A211" s="1">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -2303,7 +2348,7 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A212" s="1">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -2311,7 +2356,7 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A213" s="1">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -2319,7 +2364,7 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A214" s="1">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -2327,7 +2372,7 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A215" s="1">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -2335,7 +2380,7 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A216" s="1">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -2343,7 +2388,7 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A217" s="1">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -2351,7 +2396,7 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A218" s="1">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -2359,7 +2404,7 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A219" s="1">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -2367,7 +2412,7 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A220" s="1">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -2375,7 +2420,7 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A221" s="1">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -2383,7 +2428,7 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A222" s="1">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -2391,7 +2436,7 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A223" s="1">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -2399,7 +2444,7 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A224" s="1">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -2407,7 +2452,7 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A225" s="1">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -2415,7 +2460,7 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A226" s="1">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -2423,7 +2468,7 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A227" s="1">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -2431,7 +2476,7 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A228" s="1">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -2439,7 +2484,7 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A229" s="1">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -2447,7 +2492,7 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A230" s="1">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -2455,7 +2500,7 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A231" s="1">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -2463,7 +2508,7 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A232" s="1">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -2471,7 +2516,7 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A233" s="1">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -2479,7 +2524,7 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A234" s="1">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -2487,7 +2532,7 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A235" s="1">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -2495,7 +2540,7 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A236" s="1">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -2503,7 +2548,7 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A237" s="1">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -2511,7 +2556,7 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A238" s="1">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -2519,7 +2564,7 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A239" s="1">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -2527,7 +2572,7 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A240" s="1">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -2535,7 +2580,7 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A241" s="1">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -2543,7 +2588,7 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A242" s="1">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -2551,7 +2596,7 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A243" s="1">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -2559,7 +2604,7 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A244" s="1">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -2567,7 +2612,7 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A245" s="1">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -2575,7 +2620,7 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A246" s="1">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -2583,7 +2628,7 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A247" s="1">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -2591,7 +2636,7 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A248" s="1">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -2599,7 +2644,7 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A249" s="1">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -2607,7 +2652,7 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A250" s="1">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -2615,7 +2660,7 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A251" s="1">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -2623,7 +2668,7 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A252" s="1">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -2631,7 +2676,7 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A253" s="1">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -2639,7 +2684,7 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A254" s="1">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -2647,7 +2692,7 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A255" s="1">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -2655,7 +2700,7 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A256" s="1">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -2663,7 +2708,7 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A257" s="1">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -2671,7 +2716,7 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A258" s="1">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -2679,7 +2724,7 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A259" s="1">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -2687,7 +2732,7 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A260" s="1">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -2695,7 +2740,7 @@
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A261" s="1">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -2703,11 +2748,27 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A262" s="1">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
       <c r="D262" s="1"/>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A263" s="1">
+        <v>253</v>
+      </c>
+      <c r="B263" s="1"/>
+      <c r="C263" s="1"/>
+      <c r="D263" s="1"/>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A264" s="1">
+        <v>254</v>
+      </c>
+      <c r="B264" s="1"/>
+      <c r="C264" s="1"/>
+      <c r="D264" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/プログラム作成履歴.xlsx
+++ b/プログラム作成履歴.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -210,6 +210,26 @@
   </si>
   <si>
     <t>design9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10addList.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>addList.js</t>
+  </si>
+  <si>
+    <t>テキストボックスとプルダウンを&lt;li&gt;要素で追加する処理</t>
+    <rPh sb="19" eb="21">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ショリ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -573,15 +593,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D264"/>
+  <dimension ref="A1:D265"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.125" customWidth="1"/>
     <col min="4" max="4" width="57.375" customWidth="1"/>
   </cols>
@@ -830,21 +850,27 @@
       <c r="A22" s="1">
         <v>12</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
+      <c r="B22" s="2">
+        <v>43450</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="1">
-        <v>13</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+      <c r="A23" s="1"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -852,7 +878,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -860,7 +886,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -868,7 +894,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -876,7 +902,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -884,7 +910,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -892,7 +918,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -900,7 +926,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -908,7 +934,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -916,7 +942,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -924,7 +950,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -932,7 +958,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -940,7 +966,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -948,7 +974,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -956,7 +982,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -964,7 +990,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -972,7 +998,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -980,7 +1006,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -988,7 +1014,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -996,7 +1022,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -1004,7 +1030,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1012,7 +1038,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1020,7 +1046,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -1028,7 +1054,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1036,7 +1062,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -1044,7 +1070,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -1052,7 +1078,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -1060,7 +1086,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -1068,7 +1094,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -1076,7 +1102,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -1084,7 +1110,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -1092,7 +1118,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -1100,7 +1126,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -1108,7 +1134,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -1116,7 +1142,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -1124,7 +1150,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" s="1">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -1132,7 +1158,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" s="1">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -1140,7 +1166,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -1148,7 +1174,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -1156,7 +1182,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -1164,7 +1190,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -1172,7 +1198,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -1180,7 +1206,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -1188,7 +1214,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -1196,7 +1222,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" s="1">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -1204,7 +1230,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69" s="1">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -1212,7 +1238,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -1220,7 +1246,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -1228,7 +1254,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -1236,7 +1262,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -1244,7 +1270,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" s="1">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -1252,7 +1278,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75" s="1">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -1260,7 +1286,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76" s="1">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -1268,7 +1294,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77" s="1">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -1276,7 +1302,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78" s="1">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -1284,7 +1310,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79" s="1">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -1292,7 +1318,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80" s="1">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -1300,7 +1326,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81" s="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -1308,7 +1334,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A82" s="1">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -1316,7 +1342,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83" s="1">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -1324,7 +1350,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84" s="1">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -1332,7 +1358,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85" s="1">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -1340,7 +1366,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86" s="1">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -1348,7 +1374,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A87" s="1">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -1356,7 +1382,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A88" s="1">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -1364,7 +1390,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A89" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -1372,7 +1398,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A90" s="1">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -1380,7 +1406,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A91" s="1">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -1388,7 +1414,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A92" s="1">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -1396,7 +1422,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A93" s="1">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -1404,7 +1430,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A94" s="1">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -1412,7 +1438,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A95" s="1">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -1420,7 +1446,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A96" s="1">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -1428,7 +1454,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A97" s="1">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -1436,7 +1462,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A98" s="1">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -1444,7 +1470,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A99" s="1">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -1452,7 +1478,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100" s="1">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -1460,7 +1486,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101" s="1">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -1468,7 +1494,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A102" s="1">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -1476,7 +1502,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A103" s="1">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -1484,7 +1510,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A104" s="1">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -1492,7 +1518,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A105" s="1">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -1500,7 +1526,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A106" s="1">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -1508,7 +1534,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A107" s="1">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -1516,7 +1542,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A108" s="1">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -1524,7 +1550,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A109" s="1">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -1532,7 +1558,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A110" s="1">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -1540,7 +1566,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A111" s="1">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -1548,7 +1574,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A112" s="1">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -1556,7 +1582,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A113" s="1">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -1564,7 +1590,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A114" s="1">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -1572,7 +1598,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A115" s="1">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -1580,7 +1606,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A116" s="1">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -1588,7 +1614,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A117" s="1">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -1596,7 +1622,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A118" s="1">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -1604,7 +1630,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A119" s="1">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -1612,7 +1638,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A120" s="1">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -1620,7 +1646,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A121" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -1628,7 +1654,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A122" s="1">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -1636,7 +1662,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A123" s="1">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -1644,7 +1670,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A124" s="1">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -1652,7 +1678,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A125" s="1">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -1660,7 +1686,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A126" s="1">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -1668,7 +1694,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A127" s="1">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -1676,7 +1702,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A128" s="1">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -1684,7 +1710,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A129" s="1">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -1692,7 +1718,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A130" s="1">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -1700,7 +1726,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A131" s="1">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -1708,7 +1734,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A132" s="1">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -1716,7 +1742,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A133" s="1">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -1724,7 +1750,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A134" s="1">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -1732,7 +1758,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A135" s="1">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -1740,7 +1766,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A136" s="1">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -1748,7 +1774,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A137" s="1">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -1756,7 +1782,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A138" s="1">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -1764,7 +1790,7 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A139" s="1">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -1772,7 +1798,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A140" s="1">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -1780,7 +1806,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A141" s="1">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -1788,7 +1814,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A142" s="1">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -1796,7 +1822,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A143" s="1">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -1804,7 +1830,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A144" s="1">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -1812,7 +1838,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A145" s="1">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -1820,7 +1846,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A146" s="1">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -1828,7 +1854,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A147" s="1">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -1836,7 +1862,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A148" s="1">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -1844,7 +1870,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A149" s="1">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -1852,7 +1878,7 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A150" s="1">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -1860,7 +1886,7 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A151" s="1">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -1868,7 +1894,7 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A152" s="1">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -1876,7 +1902,7 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A153" s="1">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -1884,7 +1910,7 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A154" s="1">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -1892,7 +1918,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A155" s="1">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -1900,7 +1926,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A156" s="1">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -1908,7 +1934,7 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A157" s="1">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -1916,7 +1942,7 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A158" s="1">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -1924,7 +1950,7 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A159" s="1">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -1932,7 +1958,7 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A160" s="1">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -1940,7 +1966,7 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A161" s="1">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -1948,7 +1974,7 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A162" s="1">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -1956,7 +1982,7 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A163" s="1">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -1964,7 +1990,7 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A164" s="1">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -1972,7 +1998,7 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A165" s="1">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -1980,7 +2006,7 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A166" s="1">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -1988,7 +2014,7 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A167" s="1">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -1996,7 +2022,7 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A168" s="1">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -2004,7 +2030,7 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A169" s="1">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -2012,7 +2038,7 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A170" s="1">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -2020,7 +2046,7 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A171" s="1">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -2028,7 +2054,7 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A172" s="1">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -2036,7 +2062,7 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A173" s="1">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -2044,7 +2070,7 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A174" s="1">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -2052,7 +2078,7 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A175" s="1">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -2060,7 +2086,7 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A176" s="1">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -2068,7 +2094,7 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A177" s="1">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -2076,7 +2102,7 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A178" s="1">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -2084,7 +2110,7 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A179" s="1">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -2092,7 +2118,7 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A180" s="1">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -2100,7 +2126,7 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A181" s="1">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -2108,7 +2134,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A182" s="1">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -2116,7 +2142,7 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A183" s="1">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -2124,7 +2150,7 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A184" s="1">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -2132,7 +2158,7 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A185" s="1">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -2140,7 +2166,7 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A186" s="1">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -2148,7 +2174,7 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A187" s="1">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -2156,7 +2182,7 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A188" s="1">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -2164,7 +2190,7 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A189" s="1">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -2172,7 +2198,7 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A190" s="1">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -2180,7 +2206,7 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A191" s="1">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -2188,7 +2214,7 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A192" s="1">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -2196,7 +2222,7 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A193" s="1">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -2204,7 +2230,7 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A194" s="1">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -2212,7 +2238,7 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A195" s="1">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -2220,7 +2246,7 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A196" s="1">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -2228,7 +2254,7 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A197" s="1">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -2236,7 +2262,7 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A198" s="1">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -2244,7 +2270,7 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A199" s="1">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -2252,7 +2278,7 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A200" s="1">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -2260,7 +2286,7 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A201" s="1">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -2268,7 +2294,7 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A202" s="1">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -2276,7 +2302,7 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A203" s="1">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -2284,7 +2310,7 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A204" s="1">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -2292,7 +2318,7 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A205" s="1">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -2300,7 +2326,7 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A206" s="1">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -2308,7 +2334,7 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A207" s="1">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -2316,7 +2342,7 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A208" s="1">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -2324,7 +2350,7 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A209" s="1">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -2332,7 +2358,7 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A210" s="1">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -2340,7 +2366,7 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A211" s="1">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -2348,7 +2374,7 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A212" s="1">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -2356,7 +2382,7 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A213" s="1">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -2364,7 +2390,7 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A214" s="1">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -2372,7 +2398,7 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A215" s="1">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -2380,7 +2406,7 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A216" s="1">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -2388,7 +2414,7 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A217" s="1">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -2396,7 +2422,7 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A218" s="1">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -2404,7 +2430,7 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A219" s="1">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -2412,7 +2438,7 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A220" s="1">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -2420,7 +2446,7 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A221" s="1">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -2428,7 +2454,7 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A222" s="1">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -2436,7 +2462,7 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A223" s="1">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -2444,7 +2470,7 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A224" s="1">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -2452,7 +2478,7 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A225" s="1">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -2460,7 +2486,7 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A226" s="1">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -2468,7 +2494,7 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A227" s="1">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -2476,7 +2502,7 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A228" s="1">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -2484,7 +2510,7 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A229" s="1">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -2492,7 +2518,7 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A230" s="1">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -2500,7 +2526,7 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A231" s="1">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -2508,7 +2534,7 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A232" s="1">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -2516,7 +2542,7 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A233" s="1">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -2524,7 +2550,7 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A234" s="1">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -2532,7 +2558,7 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A235" s="1">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -2540,7 +2566,7 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A236" s="1">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -2548,7 +2574,7 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A237" s="1">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -2556,7 +2582,7 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A238" s="1">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -2564,7 +2590,7 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A239" s="1">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -2572,7 +2598,7 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A240" s="1">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -2580,7 +2606,7 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A241" s="1">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -2588,7 +2614,7 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A242" s="1">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -2596,7 +2622,7 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A243" s="1">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -2604,7 +2630,7 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A244" s="1">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -2612,7 +2638,7 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A245" s="1">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -2620,7 +2646,7 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A246" s="1">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -2628,7 +2654,7 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A247" s="1">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -2636,7 +2662,7 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A248" s="1">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -2644,7 +2670,7 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A249" s="1">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -2652,7 +2678,7 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A250" s="1">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -2660,7 +2686,7 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A251" s="1">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -2668,7 +2694,7 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A252" s="1">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -2676,7 +2702,7 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A253" s="1">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -2684,7 +2710,7 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A254" s="1">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -2692,7 +2718,7 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A255" s="1">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -2700,7 +2726,7 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A256" s="1">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -2708,7 +2734,7 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A257" s="1">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -2716,7 +2742,7 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A258" s="1">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -2724,7 +2750,7 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A259" s="1">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -2732,7 +2758,7 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A260" s="1">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -2740,7 +2766,7 @@
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A261" s="1">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -2748,7 +2774,7 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A262" s="1">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -2756,7 +2782,7 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A263" s="1">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -2764,11 +2790,19 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A264" s="1">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
       <c r="D264" s="1"/>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A265" s="1">
+        <v>254</v>
+      </c>
+      <c r="B265" s="1"/>
+      <c r="C265" s="1"/>
+      <c r="D265" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/プログラム作成履歴.xlsx
+++ b/プログラム作成履歴.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -229,6 +229,22 @@
     </rPh>
     <rPh sb="26" eb="28">
       <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>13dice.html</t>
+  </si>
+  <si>
+    <t>design13.css</t>
+  </si>
+  <si>
+    <t>dice.js</t>
+  </si>
+  <si>
+    <t>サイコロを作成</t>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -593,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D265"/>
+  <dimension ref="A1:D267"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -872,29 +888,35 @@
       <c r="A24" s="1">
         <v>13</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
+      <c r="B24" s="2">
+        <v>43450</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="1">
-        <v>14</v>
-      </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
+      <c r="A25" s="1"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="1">
-        <v>15</v>
-      </c>
+      <c r="A26" s="1"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
+      <c r="C26" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="D26" s="1"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -902,7 +924,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -910,7 +932,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -918,7 +940,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -926,7 +948,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -934,7 +956,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -942,7 +964,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -950,7 +972,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -958,7 +980,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -966,7 +988,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -974,7 +996,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -982,7 +1004,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -990,7 +1012,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -998,7 +1020,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1006,7 +1028,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1014,7 +1036,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1022,7 +1044,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -1030,7 +1052,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1038,7 +1060,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1046,7 +1068,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -1054,7 +1076,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1062,7 +1084,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -1070,7 +1092,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -1078,7 +1100,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -1086,7 +1108,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -1094,7 +1116,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -1102,7 +1124,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -1110,7 +1132,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -1118,7 +1140,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -1126,7 +1148,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -1134,7 +1156,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -1142,7 +1164,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -1150,7 +1172,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" s="1">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -1158,7 +1180,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" s="1">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -1166,7 +1188,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61" s="1">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -1174,7 +1196,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62" s="1">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -1182,7 +1204,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" s="1">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -1190,7 +1212,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" s="1">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -1198,7 +1220,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" s="1">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -1206,7 +1228,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" s="1">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -1214,7 +1236,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" s="1">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -1222,7 +1244,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" s="1">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -1230,7 +1252,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69" s="1">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -1238,7 +1260,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70" s="1">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -1246,7 +1268,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71" s="1">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -1254,7 +1276,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72" s="1">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -1262,7 +1284,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -1270,7 +1292,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" s="1">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -1278,7 +1300,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75" s="1">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -1286,7 +1308,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76" s="1">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -1294,7 +1316,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77" s="1">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -1302,7 +1324,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78" s="1">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -1310,7 +1332,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79" s="1">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -1318,7 +1340,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80" s="1">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -1326,7 +1348,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81" s="1">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -1334,7 +1356,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A82" s="1">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -1342,7 +1364,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83" s="1">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -1350,7 +1372,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84" s="1">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -1358,7 +1380,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85" s="1">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -1366,7 +1388,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86" s="1">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -1374,7 +1396,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A87" s="1">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -1382,7 +1404,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A88" s="1">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -1390,7 +1412,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A89" s="1">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -1398,7 +1420,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A90" s="1">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -1406,7 +1428,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A91" s="1">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -1414,7 +1436,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A92" s="1">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -1422,7 +1444,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A93" s="1">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -1430,7 +1452,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A94" s="1">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -1438,7 +1460,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A95" s="1">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -1446,7 +1468,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A96" s="1">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -1454,7 +1476,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A97" s="1">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -1462,7 +1484,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A98" s="1">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -1470,7 +1492,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A99" s="1">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -1478,7 +1500,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100" s="1">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -1486,7 +1508,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101" s="1">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -1494,7 +1516,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A102" s="1">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -1502,7 +1524,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A103" s="1">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -1510,7 +1532,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A104" s="1">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -1518,7 +1540,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A105" s="1">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -1526,7 +1548,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A106" s="1">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -1534,7 +1556,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A107" s="1">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -1542,7 +1564,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A108" s="1">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -1550,7 +1572,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A109" s="1">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -1558,7 +1580,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A110" s="1">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -1566,7 +1588,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A111" s="1">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -1574,7 +1596,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A112" s="1">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -1582,7 +1604,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A113" s="1">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -1590,7 +1612,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A114" s="1">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -1598,7 +1620,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A115" s="1">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -1606,7 +1628,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A116" s="1">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -1614,7 +1636,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A117" s="1">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -1622,7 +1644,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A118" s="1">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -1630,7 +1652,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A119" s="1">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -1638,7 +1660,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A120" s="1">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -1646,7 +1668,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A121" s="1">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -1654,7 +1676,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A122" s="1">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -1662,7 +1684,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A123" s="1">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -1670,7 +1692,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A124" s="1">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -1678,7 +1700,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A125" s="1">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -1686,7 +1708,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A126" s="1">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -1694,7 +1716,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A127" s="1">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -1702,7 +1724,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A128" s="1">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -1710,7 +1732,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A129" s="1">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -1718,7 +1740,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A130" s="1">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -1726,7 +1748,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A131" s="1">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -1734,7 +1756,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A132" s="1">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -1742,7 +1764,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A133" s="1">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -1750,7 +1772,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A134" s="1">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -1758,7 +1780,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A135" s="1">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -1766,7 +1788,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A136" s="1">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -1774,7 +1796,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A137" s="1">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -1782,7 +1804,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A138" s="1">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -1790,7 +1812,7 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A139" s="1">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -1798,7 +1820,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A140" s="1">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -1806,7 +1828,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A141" s="1">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -1814,7 +1836,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A142" s="1">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -1822,7 +1844,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A143" s="1">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -1830,7 +1852,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A144" s="1">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -1838,7 +1860,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A145" s="1">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -1846,7 +1868,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A146" s="1">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -1854,7 +1876,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A147" s="1">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -1862,7 +1884,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A148" s="1">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -1870,7 +1892,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A149" s="1">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -1878,7 +1900,7 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A150" s="1">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -1886,7 +1908,7 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A151" s="1">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -1894,7 +1916,7 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A152" s="1">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -1902,7 +1924,7 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A153" s="1">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -1910,7 +1932,7 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A154" s="1">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -1918,7 +1940,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A155" s="1">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -1926,7 +1948,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A156" s="1">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -1934,7 +1956,7 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A157" s="1">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -1942,7 +1964,7 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A158" s="1">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -1950,7 +1972,7 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A159" s="1">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -1958,7 +1980,7 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A160" s="1">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -1966,7 +1988,7 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A161" s="1">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -1974,7 +1996,7 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A162" s="1">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -1982,7 +2004,7 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A163" s="1">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -1990,7 +2012,7 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A164" s="1">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -1998,7 +2020,7 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A165" s="1">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -2006,7 +2028,7 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A166" s="1">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -2014,7 +2036,7 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A167" s="1">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -2022,7 +2044,7 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A168" s="1">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -2030,7 +2052,7 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A169" s="1">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -2038,7 +2060,7 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A170" s="1">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -2046,7 +2068,7 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A171" s="1">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -2054,7 +2076,7 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A172" s="1">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -2062,7 +2084,7 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A173" s="1">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -2070,7 +2092,7 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A174" s="1">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -2078,7 +2100,7 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A175" s="1">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -2086,7 +2108,7 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A176" s="1">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -2094,7 +2116,7 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A177" s="1">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -2102,7 +2124,7 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A178" s="1">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -2110,7 +2132,7 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A179" s="1">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -2118,7 +2140,7 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A180" s="1">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -2126,7 +2148,7 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A181" s="1">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -2134,7 +2156,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A182" s="1">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -2142,7 +2164,7 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A183" s="1">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -2150,7 +2172,7 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A184" s="1">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -2158,7 +2180,7 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A185" s="1">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -2166,7 +2188,7 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A186" s="1">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -2174,7 +2196,7 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A187" s="1">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -2182,7 +2204,7 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A188" s="1">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -2190,7 +2212,7 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A189" s="1">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -2198,7 +2220,7 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A190" s="1">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -2206,7 +2228,7 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A191" s="1">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -2214,7 +2236,7 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A192" s="1">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -2222,7 +2244,7 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A193" s="1">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -2230,7 +2252,7 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A194" s="1">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -2238,7 +2260,7 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A195" s="1">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -2246,7 +2268,7 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A196" s="1">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -2254,7 +2276,7 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A197" s="1">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -2262,7 +2284,7 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A198" s="1">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -2270,7 +2292,7 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A199" s="1">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -2278,7 +2300,7 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A200" s="1">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -2286,7 +2308,7 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A201" s="1">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -2294,7 +2316,7 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A202" s="1">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -2302,7 +2324,7 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A203" s="1">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -2310,7 +2332,7 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A204" s="1">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -2318,7 +2340,7 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A205" s="1">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -2326,7 +2348,7 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A206" s="1">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -2334,7 +2356,7 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A207" s="1">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -2342,7 +2364,7 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A208" s="1">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -2350,7 +2372,7 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A209" s="1">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -2358,7 +2380,7 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A210" s="1">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -2366,7 +2388,7 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A211" s="1">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -2374,7 +2396,7 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A212" s="1">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -2382,7 +2404,7 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A213" s="1">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -2390,7 +2412,7 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A214" s="1">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -2398,7 +2420,7 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A215" s="1">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -2406,7 +2428,7 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A216" s="1">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -2414,7 +2436,7 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A217" s="1">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -2422,7 +2444,7 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A218" s="1">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -2430,7 +2452,7 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A219" s="1">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -2438,7 +2460,7 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A220" s="1">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -2446,7 +2468,7 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A221" s="1">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -2454,7 +2476,7 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A222" s="1">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -2462,7 +2484,7 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A223" s="1">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -2470,7 +2492,7 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A224" s="1">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -2478,7 +2500,7 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A225" s="1">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -2486,7 +2508,7 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A226" s="1">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -2494,7 +2516,7 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A227" s="1">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -2502,7 +2524,7 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A228" s="1">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -2510,7 +2532,7 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A229" s="1">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -2518,7 +2540,7 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A230" s="1">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -2526,7 +2548,7 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A231" s="1">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -2534,7 +2556,7 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A232" s="1">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -2542,7 +2564,7 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A233" s="1">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -2550,7 +2572,7 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A234" s="1">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -2558,7 +2580,7 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A235" s="1">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -2566,7 +2588,7 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A236" s="1">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -2574,7 +2596,7 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A237" s="1">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -2582,7 +2604,7 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A238" s="1">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -2590,7 +2612,7 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A239" s="1">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -2598,7 +2620,7 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A240" s="1">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -2606,7 +2628,7 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A241" s="1">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -2614,7 +2636,7 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A242" s="1">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -2622,7 +2644,7 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A243" s="1">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -2630,7 +2652,7 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A244" s="1">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -2638,7 +2660,7 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A245" s="1">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -2646,7 +2668,7 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A246" s="1">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -2654,7 +2676,7 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A247" s="1">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -2662,7 +2684,7 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A248" s="1">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -2670,7 +2692,7 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A249" s="1">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -2678,7 +2700,7 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A250" s="1">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -2686,7 +2708,7 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A251" s="1">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -2694,7 +2716,7 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A252" s="1">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -2702,7 +2724,7 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A253" s="1">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -2710,7 +2732,7 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A254" s="1">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -2718,7 +2740,7 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A255" s="1">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -2726,7 +2748,7 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A256" s="1">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -2734,7 +2756,7 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A257" s="1">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -2742,7 +2764,7 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A258" s="1">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -2750,7 +2772,7 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A259" s="1">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -2758,7 +2780,7 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A260" s="1">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -2766,7 +2788,7 @@
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A261" s="1">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -2774,7 +2796,7 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A262" s="1">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -2782,7 +2804,7 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A263" s="1">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -2790,7 +2812,7 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A264" s="1">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
@@ -2798,11 +2820,27 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A265" s="1">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
       <c r="D265" s="1"/>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A266" s="1">
+        <v>253</v>
+      </c>
+      <c r="B266" s="1"/>
+      <c r="C266" s="1"/>
+      <c r="D266" s="1"/>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A267" s="1">
+        <v>254</v>
+      </c>
+      <c r="B267" s="1"/>
+      <c r="C267" s="1"/>
+      <c r="D267" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/プログラム作成履歴.xlsx
+++ b/プログラム作成履歴.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -245,6 +245,13 @@
     <t>サイコロを作成</t>
     <rPh sb="5" eb="7">
       <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>npm run eslinｔ設定用にnpm install</t>
+    <rPh sb="14" eb="17">
+      <t>セッテイヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -612,7 +619,7 @@
   <dimension ref="A1:D267"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -926,9 +933,13 @@
       <c r="A28" s="1">
         <v>15</v>
       </c>
-      <c r="B28" s="1"/>
+      <c r="B28" s="2">
+        <v>43458</v>
+      </c>
       <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
